--- a/Translated/MoviePilot-main/app/main.py_Translated.xlsx
+++ b/Translated/MoviePilot-main/app/main.py_Translated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,204 +508,348 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>服务关闭</t>
+          <t>启动前端服务</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Service shutdown</t>
+          <t>Starting front-end services</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t># 停止模块</t>
+          <t>停止前端服务</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#  Stop module</t>
+          <t>Stopping front-end services</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t># 停止插件</t>
+          <t>服务关闭</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#  Stop plugins</t>
+          <t>Service shutdown</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t># 停止事件消费</t>
+          <t># 停止模块</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#  Stop event consumption</t>
+          <t>#  Stop module</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t># 停止虚拟显示</t>
+          <t># 停止插件</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#  Stop virtual display</t>
+          <t>#  Stop plugins</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t># 停止定时服务</t>
+          <t># 停止事件消费</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#  Stop timing service</t>
+          <t>#  Stop event consumption</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>启动模块</t>
+          <t># 停止虚拟显示</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Starter module</t>
+          <t>#  Stop virtual display</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t># 虚伪显示</t>
+          <t># 停止定时服务</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#  False display</t>
+          <t>#  Stop timing service</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t># 站点管理</t>
+          <t># 停止前端服务</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#  Site management</t>
+          <t>#  Stopping front-end services</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t># 加载模块</t>
+          <t>启动模块</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#  Load modules</t>
+          <t>Starter module</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t># 加载插件</t>
+          <t># 虚拟显示</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#  Loading plug-ins</t>
+          <t>#  Virtualization</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t># 启动定时服务</t>
+          <t># 站点管理</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#  Start timing service</t>
+          <t>#  Site management</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t># 启动事件消费</t>
+          <t># 加载模块</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#  Initiate event consumption</t>
+          <t>#  Load modules</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t># 初始化路由</t>
+          <t># 加载插件</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#  Initializing routes</t>
+          <t>#  Loading plug-ins</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t># 初始化数据库</t>
+          <t># 启动定时服务</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>#  Initializing the database</t>
+          <t>#  Start timing service</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t># 更新数据库</t>
+          <t># 启动事件消费</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>#  Updating the database</t>
+          <t>#  Initiate event consumption</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t># 启动服务</t>
+          <t># 初始化路由</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>#  Starting services</t>
+          <t>#  Initializing routes</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t># 启动前端服务</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>#  Starting front-end services</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>启动托盘图标</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Launch tray icon</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>调用浏览器打开前端页面</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Calling the browser to open the front-end page</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>退出程序</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Opt-out program</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t># 托盘图标</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>#  Pallet icon</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>'打开',</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>' Show (a ticket)',</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>'退出',</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>' Abort',</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t># 启动托盘图标</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>#  Launch tray icon</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t># 初始化数据库</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>#  Initializing the database</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t># 更新数据库</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>#  Updating the database</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t># 启动托盘</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>#  Boot tray</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t># 启动API服务</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>#  Activate (a plan)API Service</t>
         </is>
       </c>
     </row>
